--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB66B12D-1C14-4BCE-90BA-C1B64CA2A7E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACDD9B-52A7-413B-996E-B8970F805C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30936" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="49668" yWindow="708" windowWidth="9252" windowHeight="13596" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -555,7 +555,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACDD9B-52A7-413B-996E-B8970F805C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA66A98-AD4C-0C4F-BEC1-97CA39E6124B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49668" yWindow="708" windowWidth="9252" windowHeight="13596" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +77,6 @@
   </si>
   <si>
     <t>微信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,12 +101,15 @@
     <t>第七题解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Zyd18566231115</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +122,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,12 +156,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,13 +482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -537,11 +545,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="128">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -558,9 +566,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -568,36 +576,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -611,13 +619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,28 +633,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA66A98-AD4C-0C4F-BEC1-97CA39E6124B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2DCB4-93B6-49E2-B502-2AA26F2483FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30936" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="3" r:id="rId2"/>
-    <sheet name="comprehension" sheetId="5" r:id="rId3"/>
+    <sheet name="comprehension" sheetId="5" r:id="rId2"/>
+    <sheet name="model" sheetId="6" r:id="rId3"/>
     <sheet name="WeChat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="119">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,36 +80,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您好，{姓名}本次小测的成绩为{成绩}
-错题解析：
+    <t>第一题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zyd18566231115</t>
+  </si>
+  <si>
+    <t>张1</t>
+  </si>
+  <si>
+    <t>张2</t>
+  </si>
+  <si>
+    <t>张0</t>
+  </si>
+  <si>
+    <t>张3</t>
+  </si>
+  <si>
+    <t>张4</t>
+  </si>
+  <si>
+    <t>张5</t>
+  </si>
+  <si>
+    <t>张6</t>
+  </si>
+  <si>
+    <t>张7</t>
+  </si>
+  <si>
+    <t>张8</t>
+  </si>
+  <si>
+    <t>张9</t>
+  </si>
+  <si>
+    <t>张10</t>
+  </si>
+  <si>
+    <t>张11</t>
+  </si>
+  <si>
+    <t>张12</t>
+  </si>
+  <si>
+    <t>张13</t>
+  </si>
+  <si>
+    <t>张14</t>
+  </si>
+  <si>
+    <t>张15</t>
+  </si>
+  <si>
+    <t>张16</t>
+  </si>
+  <si>
+    <t>张17</t>
+  </si>
+  <si>
+    <t>张18</t>
+  </si>
+  <si>
+    <t>张19</t>
+  </si>
+  <si>
+    <t>张20</t>
+  </si>
+  <si>
+    <t>张21</t>
+  </si>
+  <si>
+    <t>张22</t>
+  </si>
+  <si>
+    <t>张23</t>
+  </si>
+  <si>
+    <t>张24</t>
+  </si>
+  <si>
+    <t>张25</t>
+  </si>
+  <si>
+    <t>张26</t>
+  </si>
+  <si>
+    <t>张27</t>
+  </si>
+  <si>
+    <t>张28</t>
+  </si>
+  <si>
+    <t>张29</t>
+  </si>
+  <si>
+    <t>张30</t>
+  </si>
+  <si>
+    <t>张31</t>
+  </si>
+  <si>
+    <t>张32</t>
+  </si>
+  <si>
+    <t>张33</t>
+  </si>
+  <si>
+    <t>张34</t>
+  </si>
+  <si>
+    <t>张35</t>
+  </si>
+  <si>
+    <t>张36</t>
+  </si>
+  <si>
+    <t>张37</t>
+  </si>
+  <si>
+    <t>张38</t>
+  </si>
+  <si>
+    <t>张39</t>
+  </si>
+  <si>
+    <t>张40</t>
+  </si>
+  <si>
+    <t>张41</t>
+  </si>
+  <si>
+    <t>张42</t>
+  </si>
+  <si>
+    <t>张43</t>
+  </si>
+  <si>
+    <t>张44</t>
+  </si>
+  <si>
+    <t>张45</t>
+  </si>
+  <si>
+    <t>张46</t>
+  </si>
+  <si>
+    <t>张47</t>
+  </si>
+  <si>
+    <t>张48</t>
+  </si>
+  <si>
+    <t>张49</t>
+  </si>
+  <si>
+    <t>张50</t>
+  </si>
+  <si>
+    <t>张51</t>
+  </si>
+  <si>
+    <t>张52</t>
+  </si>
+  <si>
+    <t>张53</t>
+  </si>
+  <si>
+    <t>张54</t>
+  </si>
+  <si>
+    <t>张55</t>
+  </si>
+  <si>
+    <t>张56</t>
+  </si>
+  <si>
+    <t>张57</t>
+  </si>
+  <si>
+    <t>张58</t>
+  </si>
+  <si>
+    <t>张59</t>
+  </si>
+  <si>
+    <t>张60</t>
+  </si>
+  <si>
+    <t>张61</t>
+  </si>
+  <si>
+    <t>张62</t>
+  </si>
+  <si>
+    <t>张63</t>
+  </si>
+  <si>
+    <t>张64</t>
+  </si>
+  <si>
+    <t>张65</t>
+  </si>
+  <si>
+    <t>张66</t>
+  </si>
+  <si>
+    <t>张67</t>
+  </si>
+  <si>
+    <t>张68</t>
+  </si>
+  <si>
+    <t>张69</t>
+  </si>
+  <si>
+    <t>张70</t>
+  </si>
+  <si>
+    <t>张71</t>
+  </si>
+  <si>
+    <t>张72</t>
+  </si>
+  <si>
+    <t>张73</t>
+  </si>
+  <si>
+    <t>张74</t>
+  </si>
+  <si>
+    <t>张75</t>
+  </si>
+  <si>
+    <t>张76</t>
+  </si>
+  <si>
+    <t>张77</t>
+  </si>
+  <si>
+    <t>张78</t>
+  </si>
+  <si>
+    <t>张79</t>
+  </si>
+  <si>
+    <t>张80</t>
+  </si>
+  <si>
+    <t>张81</t>
+  </si>
+  <si>
+    <t>张82</t>
+  </si>
+  <si>
+    <t>张83</t>
+  </si>
+  <si>
+    <t>张84</t>
+  </si>
+  <si>
+    <t>张85</t>
+  </si>
+  <si>
+    <t>张86</t>
+  </si>
+  <si>
+    <t>张87</t>
+  </si>
+  <si>
+    <t>张88</t>
+  </si>
+  <si>
+    <t>张89</t>
+  </si>
+  <si>
+    <t>张90</t>
+  </si>
+  <si>
+    <t>张91</t>
+  </si>
+  <si>
+    <t>张92</t>
+  </si>
+  <si>
+    <t>张93</t>
+  </si>
+  <si>
+    <t>张94</t>
+  </si>
+  <si>
+    <t>张95</t>
+  </si>
+  <si>
+    <t>张96</t>
+  </si>
+  <si>
+    <t>张97</t>
+  </si>
+  <si>
+    <t>张98</t>
+  </si>
+  <si>
+    <t>张99</t>
+  </si>
+  <si>
+    <t>错题解析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{错题解析}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，{姓名}本次小测的成绩为{成绩} 
+错题解析： 
 {错题解析}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zyd18566231115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +438,21 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +487,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,15 +809,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" customHeight="1">
+    <row r="1" spans="1:3" ht="15.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -530,6 +859,806 @@
       </c>
       <c r="C4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -540,35 +1669,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BE4C88-A23D-47BF-914C-AC174C454D1F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="128">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69C7DED-6FD8-4258-97BC-CC012C9EC9BA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -576,36 +1686,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -615,17 +1725,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,28 +1772,828 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2DCB4-93B6-49E2-B502-2AA26F2483FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E01581-DEC1-B84D-AEF5-0332259530D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30936" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,15 +809,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -901,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -941,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -981,683 +981,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104">
         <v>10</v>
       </c>
     </row>
@@ -1676,9 +1004,9 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1694,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1702,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1710,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1731,19 +1059,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="128">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1762,9 +1090,9 @@
       <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1820,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +1172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +1220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1908,7 +1236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1916,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +1252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1932,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1940,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1948,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1956,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>39</v>
       </c>
@@ -1988,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -2004,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +1340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -2020,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +1364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2044,7 +1372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +1396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +1404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
@@ -2084,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
@@ -2100,7 +1428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>54</v>
       </c>
@@ -2108,7 +1436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -2116,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>56</v>
       </c>
@@ -2124,7 +1452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
@@ -2140,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>59</v>
       </c>
@@ -2148,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +1484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
@@ -2164,7 +1492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>63</v>
       </c>
@@ -2180,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>64</v>
       </c>
@@ -2188,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
@@ -2204,7 +1532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2212,7 +1540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>68</v>
       </c>
@@ -2220,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>69</v>
       </c>
@@ -2228,7 +1556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>70</v>
       </c>
@@ -2236,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>71</v>
       </c>
@@ -2244,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>72</v>
       </c>
@@ -2252,7 +1580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>73</v>
       </c>
@@ -2260,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>74</v>
       </c>
@@ -2268,7 +1596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -2276,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>76</v>
       </c>
@@ -2284,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
@@ -2292,7 +1620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>78</v>
       </c>
@@ -2300,7 +1628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>79</v>
       </c>
@@ -2308,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
@@ -2316,7 +1644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
@@ -2324,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>82</v>
       </c>
@@ -2332,7 +1660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>83</v>
       </c>
@@ -2340,7 +1668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
@@ -2348,7 +1676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>85</v>
       </c>
@@ -2356,7 +1684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
@@ -2364,7 +1692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>87</v>
       </c>
@@ -2372,7 +1700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
@@ -2380,7 +1708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>89</v>
       </c>
@@ -2388,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
@@ -2396,7 +1724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>91</v>
       </c>
@@ -2404,7 +1732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>92</v>
       </c>
@@ -2412,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
@@ -2420,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>94</v>
       </c>
@@ -2428,7 +1756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>95</v>
       </c>
@@ -2436,7 +1764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>96</v>
       </c>
@@ -2444,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
@@ -2452,7 +1780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>98</v>
       </c>
@@ -2460,7 +1788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>99</v>
       </c>
@@ -2468,7 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>100</v>
       </c>
@@ -2476,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>101</v>
       </c>
@@ -2484,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>102</v>
       </c>
@@ -2492,7 +1820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>103</v>
       </c>
@@ -2500,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>104</v>
       </c>
@@ -2508,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>105</v>
       </c>
@@ -2516,7 +1844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>106</v>
       </c>
@@ -2524,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>107</v>
       </c>
@@ -2532,7 +1860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>108</v>
       </c>
@@ -2540,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>109</v>
       </c>
@@ -2548,7 +1876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>110</v>
       </c>
@@ -2556,7 +1884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>111</v>
       </c>
@@ -2564,7 +1892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>112</v>
       </c>
@@ -2572,7 +1900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>113</v>
       </c>
@@ -2580,7 +1908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>114</v>
       </c>
@@ -2588,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>115</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E01581-DEC1-B84D-AEF5-0332259530D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA34F6B-5350-7F4F-9789-B17B2A3744EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
-    <sheet name="comprehension" sheetId="5" r:id="rId2"/>
-    <sheet name="model" sheetId="6" r:id="rId3"/>
-    <sheet name="WeChat" sheetId="4" r:id="rId4"/>
+    <sheet name="comprehension1" sheetId="5" r:id="rId2"/>
+    <sheet name="comprehension0" sheetId="7" r:id="rId3"/>
+    <sheet name="model" sheetId="6" r:id="rId4"/>
+    <sheet name="WeChat" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，6，7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘武</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,30 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1，4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zyd18566231115</t>
   </si>
   <si>
@@ -407,9 +384,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您好，{姓名}本次小测的成绩为{成绩} 
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：
+您好，{姓名}本次小测的成绩为{成绩} 
+{错题解析}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良：
+您好，{姓名}本次小测的成绩为{成绩} 
 错题解析： 
 {错题解析}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不及格：
+您好，{姓名}本次小测的成绩为{成绩} 
+错题解析： 
+{错题解析}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班第一题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班第四题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班第六题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班第七题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1班第二题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0班第一题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0班第四题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0班第六题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0班第七题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0班第二题解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,15 +860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" customHeight="1">
+    <row r="1" spans="1:4" ht="15.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,8 +878,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -838,8 +892,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -847,146 +904,215 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -998,20 +1124,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69C7DED-6FD8-4258-97BC-CC012C9EC9BA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1019,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1027,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1035,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1043,7 +1169,15 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1054,26 +1188,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E81BEB-9599-4843-98CD-EA578ACAF8C3}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="128">
-      <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>117</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1083,11 +1252,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="144">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1097,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1105,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1113,815 +1319,815 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA34F6B-5350-7F4F-9789-B17B2A3744EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA57805-6F45-A742-A189-99D897AE8CBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
     <sheet name="comprehension1" sheetId="5" r:id="rId2"/>
-    <sheet name="comprehension0" sheetId="7" r:id="rId3"/>
+    <sheet name="comprehension2" sheetId="7" r:id="rId3"/>
     <sheet name="model" sheetId="6" r:id="rId4"/>
     <sheet name="WeChat" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -444,23 +444,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0班第一题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0班第四题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0班第六题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0班第七题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0班第二题解析</t>
+    <t>2班第二题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班第七题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班第六题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班第四题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班第一题解析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +863,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -907,7 +907,7 @@
         <v>117</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -996,7 +996,7 @@
         <v>122</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>116</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1043,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1112,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA57805-6F45-A742-A189-99D897AE8CBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880EE400-71F4-C44F-8E20-AE5EAB59EE69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,91 +376,142 @@
     <t>张99</t>
   </si>
   <si>
-    <t>错题解析：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{错题解析}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优：
-您好，{姓名}本次小测的成绩为{成绩} 
-{错题解析}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良：
-您好，{姓名}本次小测的成绩为{成绩} 
-错题解析： 
-{错题解析}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不及格：
-您好，{姓名}本次小测的成绩为{成绩} 
-错题解析： 
-{错题解析}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班第一题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班第四题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班第六题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班第七题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1班第二题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2班第二题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2班第七题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2班第六题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2班第四题解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2班第一题解析</t>
+    <t>刘雪燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l18745616228</t>
+  </si>
+  <si>
+    <t>刘玉和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxid_mo5ef50gjm0322</t>
+  </si>
+  <si>
+    <t>高洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gorgeous_1990</t>
+  </si>
+  <si>
+    <t>zhlxh6661</t>
+  </si>
+  <si>
+    <t>刘雪华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雪荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxrgjgyh</t>
+  </si>
+  <si>
+    <t>刘雪梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵燕迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔竞元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjy154</t>
+  </si>
+  <si>
+    <t>sjj8771</t>
+  </si>
+  <si>
+    <t>宋婧婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qtmn0820</t>
+  </si>
+  <si>
+    <t>田旖旎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁思雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSY1774669546</t>
+  </si>
+  <si>
+    <t>zj675958148</t>
+  </si>
+  <si>
+    <t>张洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:解析测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:解析测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，{姓名}。测试数据：{成绩} 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，{姓名}。测试数据：{成绩} 
+解析测试： 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">您好，{姓名}。测试数据：{成绩} 
+解析测试： 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老姑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -879,74 +930,71 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
+      <c r="A5" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -954,10 +1002,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -965,7 +1016,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -976,10 +1027,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -987,13 +1041,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1001,13 +1055,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1015,13 +1069,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1029,10 +1083,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1040,78 +1097,15 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="D20">
         <v>2</v>
       </c>
     </row>
@@ -1124,13 +1118,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69C7DED-6FD8-4258-97BC-CC012C9EC9BA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
+      <selection activeCell="B11" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1145,39 +1143,79 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1189,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E81BEB-9599-4843-98CD-EA578ACAF8C3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1210,39 +1248,79 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1261,25 +1339,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="144">
+    <row r="1" spans="1:3" ht="224">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD12"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2130,6 +2198,118 @@
         <v>9</v>
       </c>
     </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/xueersi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880EE400-71F4-C44F-8E20-AE5EAB59EE69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE0E6E-A0E9-4644-91FD-E7520BF4B2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30936" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
-    <sheet name="comprehension1" sheetId="5" r:id="rId2"/>
-    <sheet name="comprehension2" sheetId="7" r:id="rId3"/>
-    <sheet name="model" sheetId="6" r:id="rId4"/>
-    <sheet name="WeChat" sheetId="4" r:id="rId5"/>
+    <sheet name="comprehension" sheetId="5" r:id="rId2"/>
+    <sheet name="model" sheetId="6" r:id="rId3"/>
+    <sheet name="WeChat" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="172">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +72,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>第一题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七题解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Zyd18566231115</t>
   </si>
   <si>
@@ -376,150 +391,195 @@
     <t>张99</t>
   </si>
   <si>
-    <t>班级</t>
+    <t>错题解析：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘雪燕</t>
+    <t>{错题解析}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>l18745616228</t>
-  </si>
-  <si>
-    <t>刘玉和</t>
+    <t>您好，{姓名}本次小测的成绩为{成绩} 
+错题解析： 
+{错题解析}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wxid_mo5ef50gjm0322</t>
-  </si>
-  <si>
-    <t>高洁</t>
+    <t>张三丰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gorgeous_1990</t>
-  </si>
-  <si>
-    <t>zhlxh6661</t>
-  </si>
-  <si>
-    <t>刘雪华</t>
+    <t>张只要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘雪荣</t>
+    <t>张阿斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lxrgjgyh</t>
-  </si>
-  <si>
-    <t>刘雪梅</t>
+    <t>张阿的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵燕迪</t>
+    <t>刘武当</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张金婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔竞元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjy154</t>
-  </si>
-  <si>
-    <t>sjj8771</t>
-  </si>
-  <si>
-    <t>宋婧婧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qtmn0820</t>
-  </si>
-  <si>
-    <t>田旖旎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁思雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSY1774669546</t>
-  </si>
-  <si>
-    <t>zj675958148</t>
-  </si>
-  <si>
-    <t>张洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5,7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:解析测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:解析测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，{姓名}。测试数据：{成绩} 
-{错题解析}
-打扰大家了，抱歉，一会可能还会有几次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，{姓名}。测试数据：{成绩} 
-解析测试： 
-{错题解析}
-打扰大家了，抱歉，一会可能还会有几次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">您好，{姓名}。测试数据：{成绩} 
-解析测试： 
-{错题解析}
-打扰大家了，抱歉，一会可能还会有几次
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老姑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>卫接接</t>
+  </si>
+  <si>
+    <t>陈五翼</t>
+  </si>
+  <si>
+    <t>何江翼</t>
+  </si>
+  <si>
+    <t>魏湖分</t>
+  </si>
+  <si>
+    <t>孙章江</t>
+  </si>
+  <si>
+    <t>冯江轸</t>
+  </si>
+  <si>
+    <t>孙新</t>
+  </si>
+  <si>
+    <t>曹星</t>
+  </si>
+  <si>
+    <t>蒋湖故</t>
+  </si>
+  <si>
+    <t>吕而</t>
+  </si>
+  <si>
+    <t>华庐</t>
+  </si>
+  <si>
+    <t>杨故衡</t>
+  </si>
+  <si>
+    <t>曹三</t>
+  </si>
+  <si>
+    <t>金地星</t>
+  </si>
+  <si>
+    <t>姜郡</t>
+  </si>
+  <si>
+    <t>沈分豫</t>
+  </si>
+  <si>
+    <t>姜新</t>
+  </si>
+  <si>
+    <t>陶地洪</t>
+  </si>
+  <si>
+    <t>赵洪而</t>
+  </si>
+  <si>
+    <t>杨故</t>
+  </si>
+  <si>
+    <t>朱湖分</t>
+  </si>
+  <si>
+    <t>韩府章</t>
+  </si>
+  <si>
+    <t>赵章</t>
+  </si>
+  <si>
+    <t>孔府</t>
+  </si>
+  <si>
+    <t>孙湖三</t>
+  </si>
+  <si>
+    <t>张新</t>
+  </si>
+  <si>
+    <t>冯故</t>
+  </si>
+  <si>
+    <t>孙星</t>
+  </si>
+  <si>
+    <t>魏带</t>
+  </si>
+  <si>
+    <t>严新</t>
+  </si>
+  <si>
+    <t>姜轸新</t>
+  </si>
+  <si>
+    <t>施地地</t>
+  </si>
+  <si>
+    <t>严府洪</t>
+  </si>
+  <si>
+    <t>杨轸</t>
+  </si>
+  <si>
+    <t>魏府章</t>
+  </si>
+  <si>
+    <t>华湖</t>
+  </si>
+  <si>
+    <t>张江</t>
+  </si>
+  <si>
+    <t>何府都</t>
+  </si>
+  <si>
+    <t>陶郡</t>
+  </si>
+  <si>
+    <t>王襟</t>
+  </si>
+  <si>
+    <t>冯而星</t>
+  </si>
+  <si>
+    <t>魏郡新</t>
+  </si>
+  <si>
+    <t>孙五带</t>
+  </si>
+  <si>
+    <t>韩分</t>
+  </si>
+  <si>
+    <t>曹衡</t>
+  </si>
+  <si>
+    <t>王带</t>
+  </si>
+  <si>
+    <t>周郡庐</t>
+  </si>
+  <si>
+    <t>蒋庐</t>
+  </si>
+  <si>
+    <t>张星故</t>
+  </si>
+  <si>
+    <t>孙衡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,15 +971,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" customHeight="1">
+    <row r="1" spans="1:3" ht="15.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,184 +989,445 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>111</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1118,19 +1439,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69C7DED-6FD8-4258-97BC-CC012C9EC9BA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A2:B11"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1138,84 +1455,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1226,101 +1495,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E81BEB-9599-4843-98CD-EA578ACAF8C3}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
+    <row r="1" spans="1:1" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1330,43 +1524,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="224">
-      <c r="A1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
-  <dimension ref="A1:B118"/>
-  <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:XFD106"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,940 +1541,1332 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B107" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B108" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="4" t="s">
+      <c r="B114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="4" t="s">
+      <c r="B116" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B117" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" t="s">
-        <v>132</v>
+      <c r="B140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lureiny/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lureiny\PycharmProjects\xueersi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF90A643-9FCD-A44E-83E8-EEE119E5B529}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913DDE0-94F7-4EAD-AE61-D82D16AA752D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
+    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30936" activeTab="4" xr2:uid="{D87CD550-6060-4F30-A363-7ED1094F82F8}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="77">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zyd18566231115</t>
   </si>
   <si>
@@ -96,20 +92,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您好，{姓名}。测试数据：{成绩} 
+    <t>张三丰</t>
+  </si>
+  <si>
+    <t>张只要</t>
+  </si>
+  <si>
+    <t>张阿斯</t>
+  </si>
+  <si>
+    <t>张阿的</t>
+  </si>
+  <si>
+    <t>刘武当</t>
+  </si>
+  <si>
+    <t>卫接接</t>
+  </si>
+  <si>
+    <t>陈五翼</t>
+  </si>
+  <si>
+    <t>何江翼</t>
+  </si>
+  <si>
+    <t>魏湖分</t>
+  </si>
+  <si>
+    <t>孙章江</t>
+  </si>
+  <si>
+    <t>冯江轸</t>
+  </si>
+  <si>
+    <t>孙新</t>
+  </si>
+  <si>
+    <t>曹星</t>
+  </si>
+  <si>
+    <t>蒋湖故</t>
+  </si>
+  <si>
+    <t>吕而</t>
+  </si>
+  <si>
+    <t>华庐</t>
+  </si>
+  <si>
+    <t>杨故衡</t>
+  </si>
+  <si>
+    <t>曹三</t>
+  </si>
+  <si>
+    <t>金地星</t>
+  </si>
+  <si>
+    <t>姜郡</t>
+  </si>
+  <si>
+    <t>沈分豫</t>
+  </si>
+  <si>
+    <t>姜新</t>
+  </si>
+  <si>
+    <t>陶地洪</t>
+  </si>
+  <si>
+    <t>赵洪而</t>
+  </si>
+  <si>
+    <t>杨故</t>
+  </si>
+  <si>
+    <t>朱湖分</t>
+  </si>
+  <si>
+    <t>韩府章</t>
+  </si>
+  <si>
+    <t>赵章</t>
+  </si>
+  <si>
+    <t>孔府</t>
+  </si>
+  <si>
+    <t>孙湖三</t>
+  </si>
+  <si>
+    <t>张新</t>
+  </si>
+  <si>
+    <t>冯故</t>
+  </si>
+  <si>
+    <t>孙星</t>
+  </si>
+  <si>
+    <t>魏带</t>
+  </si>
+  <si>
+    <t>严新</t>
+  </si>
+  <si>
+    <t>姜轸新</t>
+  </si>
+  <si>
+    <t>施地地</t>
+  </si>
+  <si>
+    <t>严府洪</t>
+  </si>
+  <si>
+    <t>杨轸</t>
+  </si>
+  <si>
+    <t>魏府章</t>
+  </si>
+  <si>
+    <t>华湖</t>
+  </si>
+  <si>
+    <t>张江</t>
+  </si>
+  <si>
+    <t>何府都</t>
+  </si>
+  <si>
+    <t>陶郡</t>
+  </si>
+  <si>
+    <t>王襟</t>
+  </si>
+  <si>
+    <t>冯而星</t>
+  </si>
+  <si>
+    <t>魏郡新</t>
+  </si>
+  <si>
+    <t>孙五带</t>
+  </si>
+  <si>
+    <t>韩分</t>
+  </si>
+  <si>
+    <t>曹衡</t>
+  </si>
+  <si>
+    <t>王带</t>
+  </si>
+  <si>
+    <t>周郡庐</t>
+  </si>
+  <si>
+    <t>蒋庐</t>
+  </si>
+  <si>
+    <t>张星故</t>
+  </si>
+  <si>
+    <t>孙衡</t>
+  </si>
+  <si>
+    <t>优秀学生： 
+您好，{姓名}。测试数据：{成绩} 
 {错题解析}
 打扰大家了，抱歉，一会可能还会有几次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您好，{姓名}。测试数据：{成绩} 
+    <t>良好学生：
+您好，{姓名}。测试数据：{成绩} 
 解析测试： 
 {错题解析}
 打扰大家了，抱歉，一会可能还会有几次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">您好，{姓名}。测试数据：{成绩} 
+    <t xml:space="preserve">差学生：
+您好，{姓名}。测试数据：{成绩} 
 解析测试： 
 {错题解析}
 打扰大家了，抱歉，一会可能还会有几次
@@ -117,169 +281,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三丰</t>
-  </si>
-  <si>
-    <t>张只要</t>
-  </si>
-  <si>
-    <t>张阿斯</t>
-  </si>
-  <si>
-    <t>张阿的</t>
-  </si>
-  <si>
-    <t>刘武当</t>
-  </si>
-  <si>
-    <t>卫接接</t>
-  </si>
-  <si>
-    <t>陈五翼</t>
-  </si>
-  <si>
-    <t>何江翼</t>
-  </si>
-  <si>
-    <t>魏湖分</t>
-  </si>
-  <si>
-    <t>孙章江</t>
-  </si>
-  <si>
-    <t>冯江轸</t>
-  </si>
-  <si>
-    <t>孙新</t>
-  </si>
-  <si>
-    <t>曹星</t>
-  </si>
-  <si>
-    <t>蒋湖故</t>
-  </si>
-  <si>
-    <t>吕而</t>
-  </si>
-  <si>
-    <t>华庐</t>
-  </si>
-  <si>
-    <t>杨故衡</t>
-  </si>
-  <si>
-    <t>曹三</t>
-  </si>
-  <si>
-    <t>金地星</t>
-  </si>
-  <si>
-    <t>姜郡</t>
-  </si>
-  <si>
-    <t>沈分豫</t>
-  </si>
-  <si>
-    <t>姜新</t>
-  </si>
-  <si>
-    <t>陶地洪</t>
-  </si>
-  <si>
-    <t>赵洪而</t>
-  </si>
-  <si>
-    <t>杨故</t>
-  </si>
-  <si>
-    <t>朱湖分</t>
-  </si>
-  <si>
-    <t>韩府章</t>
-  </si>
-  <si>
-    <t>赵章</t>
-  </si>
-  <si>
-    <t>孔府</t>
-  </si>
-  <si>
-    <t>孙湖三</t>
-  </si>
-  <si>
-    <t>张新</t>
-  </si>
-  <si>
-    <t>冯故</t>
-  </si>
-  <si>
-    <t>孙星</t>
-  </si>
-  <si>
-    <t>魏带</t>
-  </si>
-  <si>
-    <t>严新</t>
-  </si>
-  <si>
-    <t>姜轸新</t>
-  </si>
-  <si>
-    <t>施地地</t>
-  </si>
-  <si>
-    <t>严府洪</t>
-  </si>
-  <si>
-    <t>杨轸</t>
-  </si>
-  <si>
-    <t>魏府章</t>
-  </si>
-  <si>
-    <t>华湖</t>
-  </si>
-  <si>
-    <t>张江</t>
-  </si>
-  <si>
-    <t>何府都</t>
-  </si>
-  <si>
-    <t>陶郡</t>
-  </si>
-  <si>
-    <t>王襟</t>
-  </si>
-  <si>
-    <t>冯而星</t>
-  </si>
-  <si>
-    <t>魏郡新</t>
-  </si>
-  <si>
-    <t>孙五带</t>
-  </si>
-  <si>
-    <t>韩分</t>
-  </si>
-  <si>
-    <t>曹衡</t>
-  </si>
-  <si>
-    <t>王带</t>
-  </si>
-  <si>
-    <t>周郡庐</t>
-  </si>
-  <si>
-    <t>蒋庐</t>
-  </si>
-  <si>
-    <t>张星故</t>
-  </si>
-  <si>
-    <t>孙衡</t>
+    <t>优秀家长：
+您好，{姓名}。测试数据：{成绩} 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好家长
+您好，{姓名}。测试数据：{成绩} 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差家长
+您好，{姓名}。测试数据：{成绩} 
+{错题解析}
+打扰大家了，抱歉，一会可能还会有几次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,13 +697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE76F9D1-1A50-49F4-8D91-FE3B209E9941}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" customHeight="1">
+    <row r="1" spans="1:4" ht="15.55" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,12 +714,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -702,13 +730,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -716,13 +744,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -730,13 +758,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -744,13 +772,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -758,13 +786,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -772,7 +800,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -783,7 +811,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -797,13 +825,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -811,13 +839,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -825,13 +853,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -839,13 +867,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -853,13 +881,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -867,7 +895,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -878,13 +906,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -892,13 +920,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -906,13 +934,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -920,13 +948,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -934,13 +962,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -948,7 +976,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -959,7 +987,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -973,13 +1001,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -987,13 +1015,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1001,13 +1029,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1015,13 +1043,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1029,21 +1057,21 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1054,13 +1082,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1068,13 +1096,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1082,13 +1110,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1096,13 +1124,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1110,13 +1138,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1124,7 +1152,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -1135,7 +1163,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1149,13 +1177,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -1163,13 +1191,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1177,13 +1205,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1191,13 +1219,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1205,13 +1233,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1219,7 +1247,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -1230,13 +1258,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1244,13 +1272,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1258,13 +1286,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1272,13 +1300,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1286,13 +1314,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1300,7 +1328,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1311,7 +1339,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -1325,13 +1353,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1339,13 +1367,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1353,13 +1381,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1367,13 +1395,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1381,13 +1409,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1395,7 +1423,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -1406,13 +1434,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1420,13 +1448,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1447,7 +1475,7 @@
       <selection activeCell="B11" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
@@ -1466,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1474,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1482,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1490,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1498,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1506,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1514,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1522,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1530,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1538,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1584,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1571,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1579,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1587,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1595,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1603,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1611,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1619,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1627,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1635,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1643,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1654,23 +1682,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B9907-A5C9-4E72-B077-429B5BEE0987}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="224">
+    <row r="1" spans="1:3" ht="212.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="183.9">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1681,460 +1720,484 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E42777-A779-4C29-A252-AABFAE7F78B8}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
